--- a/output_data/charts/capacity-Granville-1600000US3931402.xlsx
+++ b/output_data/charts/capacity-Granville-1600000US3931402.xlsx
@@ -42,7 +42,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -519,7 +519,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10000</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -856,52 +856,52 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3600</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6400</c:v>
+                  <c:v>6.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8400</c:v>
+                  <c:v>8.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10200</c:v>
+                  <c:v>10.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16000</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17900</c:v>
+                  <c:v>17.9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3800</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1883800</c:v>
+                  <c:v>1883.8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>24100</c:v>
+                  <c:v>24.1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22500</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>87400</c:v>
+                  <c:v>87.40000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8120</c:v>
+                  <c:v>8.119999999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>13400</c:v>
+                  <c:v>13.4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>28330</c:v>
+                  <c:v>28.33</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8704</c:v>
+                  <c:v>8.704000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1342,14 +1342,14 @@
                   <a:rPr lang="en-US" sz="900" baseline="0">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Watts</a:t>
+                  <a:t>Kilowatts (kW)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="[&gt;=1000]#,##0,&quot;K&quot;" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:tickLblPos val="low"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>3600</v>
+        <v>3.6</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>6400</v>
+        <v>6.4</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>8400</v>
+        <v>8.4</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>10200</v>
+        <v>10.2</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <v>16000</v>
+        <v>16</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>17900</v>
+        <v>17.9</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>3800</v>
+        <v>3.8</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <v>1883800</v>
+        <v>1883.8</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <v>24100</v>
+        <v>24.1</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>22500</v>
+        <v>22.5</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>87400</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>8120</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>13400</v>
+        <v>13.4</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>28330</v>
+        <v>28.33</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -2312,13 +2312,13 @@
         <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>8704</v>
+        <v>8.704000000000001</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>

--- a/output_data/charts/capacity-Granville-1600000US3931402.xlsx
+++ b/output_data/charts/capacity-Granville-1600000US3931402.xlsx
@@ -901,7 +901,7 @@
                   <c:v>28.33</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.704000000000001</c:v>
+                  <c:v>16.304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>8.704000000000001</v>
+        <v>16.304</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
